--- a/test_case_katalon.xlsx
+++ b/test_case_katalon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dangh\Desktop\Amaris_QA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{711BF7FE-B095-4D16-845F-D7340CDE783D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37457A81-D9E4-49DB-83F1-6162E5E41C03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="29760" yWindow="-3795" windowWidth="21600" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="165">
   <si>
     <t>TEST CASE TEMPLATE</t>
   </si>
@@ -535,6 +535,26 @@
   <si>
     <t xml:space="preserve">Coupon "aaaa" does not exist!
 </t>
+  </si>
+  <si>
+    <t>TC020</t>
+  </si>
+  <si>
+    <t>Register_Select payment with out input info</t>
+  </si>
+  <si>
+    <t>2. leave all input block blank</t>
+  </si>
+  <si>
+    <t>3. click "continue to payment"</t>
+  </si>
+  <si>
+    <t>Billing First Name is a required field.
+Billing Last Name is a required field.
+Billing Phone is a required field.
+Billing Address is a required field.
+Billing Town / City is a required field.
+Billing Postcode / ZIP is a required field.</t>
   </si>
 </sst>
 </file>
@@ -1178,8 +1198,8 @@
   </sheetPr>
   <dimension ref="A1:AD1007"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="J77" sqref="J77"/>
+    <sheetView tabSelected="1" topLeftCell="E76" workbookViewId="0">
+      <selection activeCell="J81" sqref="J81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -4275,12 +4295,20 @@
       <c r="AC78" s="5"/>
       <c r="AD78" s="5"/>
     </row>
-    <row r="79" spans="1:30" ht="17.399999999999999">
+    <row r="79" spans="1:30" ht="30">
       <c r="A79" s="6"/>
-      <c r="B79" s="22"/>
-      <c r="C79" s="22"/>
-      <c r="D79" s="21"/>
-      <c r="E79" s="21"/>
+      <c r="B79" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="C79" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="D79" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="E79" s="21" t="s">
+        <v>98</v>
+      </c>
       <c r="F79" s="22"/>
       <c r="G79" s="22"/>
       <c r="H79" s="22"/>
@@ -4307,17 +4335,27 @@
       <c r="AC79" s="5"/>
       <c r="AD79" s="5"/>
     </row>
-    <row r="80" spans="1:30" ht="17.399999999999999">
+    <row r="80" spans="1:30" ht="195">
       <c r="A80" s="6"/>
       <c r="B80" s="22"/>
       <c r="C80" s="22"/>
       <c r="D80" s="21"/>
-      <c r="E80" s="21"/>
+      <c r="E80" s="21" t="s">
+        <v>162</v>
+      </c>
       <c r="F80" s="22"/>
-      <c r="G80" s="22"/>
-      <c r="H80" s="22"/>
-      <c r="I80" s="22"/>
-      <c r="J80" s="22"/>
+      <c r="G80" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="H80" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="I80" s="36" t="s">
+        <v>154</v>
+      </c>
+      <c r="J80" s="22" t="s">
+        <v>21</v>
+      </c>
       <c r="K80" s="25"/>
       <c r="L80" s="25"/>
       <c r="M80" s="22"/>
@@ -4339,12 +4377,14 @@
       <c r="AC80" s="5"/>
       <c r="AD80" s="5"/>
     </row>
-    <row r="81" spans="1:30" ht="17.399999999999999">
+    <row r="81" spans="1:30" ht="26.4">
       <c r="A81" s="6"/>
       <c r="B81" s="22"/>
       <c r="C81" s="26"/>
       <c r="D81" s="21"/>
-      <c r="E81" s="21"/>
+      <c r="E81" s="21" t="s">
+        <v>163</v>
+      </c>
       <c r="F81" s="22"/>
       <c r="G81" s="22"/>
       <c r="H81" s="22"/>
@@ -34014,6 +34054,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/test_case_katalon.xlsx
+++ b/test_case_katalon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dangh\Desktop\Amaris_QA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37457A81-D9E4-49DB-83F1-6162E5E41C03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{695B3CC9-7BB7-43E7-9F06-690AA66655FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="29760" yWindow="-3795" windowWidth="21600" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="166">
   <si>
     <t>TEST CASE TEMPLATE</t>
   </si>
@@ -503,9 +503,6 @@
     <t>Test main function on Login - Register - Shopping - Checkout page</t>
   </si>
   <si>
-    <t>Register_Returning customer login</t>
-  </si>
-  <si>
     <t xml:space="preserve">2. click "click here to login" </t>
   </si>
   <si>
@@ -519,9 +516,6 @@
   </si>
   <si>
     <t>win 11 - chrome - 130.0.6723.117 - https://practice.automationtesting.in/checkout/</t>
-  </si>
-  <si>
-    <t>Register_Insert invalid coupon code</t>
   </si>
   <si>
     <t xml:space="preserve">2. click"Click here to enter your code"  </t>
@@ -540,9 +534,6 @@
     <t>TC020</t>
   </si>
   <si>
-    <t>Register_Select payment with out input info</t>
-  </si>
-  <si>
     <t>2. leave all input block blank</t>
   </si>
   <si>
@@ -555,6 +546,18 @@
 Billing Address is a required field.
 Billing Town / City is a required field.
 Billing Postcode / ZIP is a required field.</t>
+  </si>
+  <si>
+    <t>Checkout_Returning customer login</t>
+  </si>
+  <si>
+    <t>Checkout</t>
+  </si>
+  <si>
+    <t>Checkout_Insert invalid coupon code</t>
+  </si>
+  <si>
+    <t>Checkout_Select payment with out input info</t>
   </si>
 </sst>
 </file>
@@ -1198,8 +1201,8 @@
   </sheetPr>
   <dimension ref="A1:AD1007"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E76" workbookViewId="0">
-      <selection activeCell="J81" sqref="J81"/>
+    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
+      <selection activeCell="C80" sqref="C80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -4063,10 +4066,10 @@
         <v>133</v>
       </c>
       <c r="C73" s="22" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="D73" s="36" t="s">
-        <v>42</v>
+        <v>163</v>
       </c>
       <c r="E73" s="21" t="s">
         <v>98</v>
@@ -4075,13 +4078,13 @@
         <v>72</v>
       </c>
       <c r="G73" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="H73" s="22" t="s">
         <v>152</v>
       </c>
-      <c r="H73" s="22" t="s">
+      <c r="I73" s="36" t="s">
         <v>153</v>
-      </c>
-      <c r="I73" s="36" t="s">
-        <v>154</v>
       </c>
       <c r="J73" s="22" t="s">
         <v>21</v>
@@ -4113,7 +4116,7 @@
       <c r="C74" s="22"/>
       <c r="D74" s="21"/>
       <c r="E74" s="21" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F74" s="21" t="s">
         <v>71</v>
@@ -4149,7 +4152,7 @@
       <c r="C75" s="22"/>
       <c r="D75" s="21"/>
       <c r="E75" s="21" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F75" s="22"/>
       <c r="G75" s="25"/>
@@ -4183,25 +4186,25 @@
         <v>137</v>
       </c>
       <c r="C76" s="22" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="D76" s="36" t="s">
-        <v>42</v>
+        <v>163</v>
       </c>
       <c r="E76" s="21" t="s">
         <v>98</v>
       </c>
       <c r="F76" s="22" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G76" s="22" t="s">
         <v>34</v>
       </c>
       <c r="H76" s="22" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="I76" s="36" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J76" s="22" t="s">
         <v>21</v>
@@ -4233,7 +4236,7 @@
       <c r="C77" s="22"/>
       <c r="D77" s="21"/>
       <c r="E77" s="36" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F77" s="23"/>
       <c r="G77" s="23"/>
@@ -4267,7 +4270,7 @@
       <c r="C78" s="22"/>
       <c r="D78" s="21"/>
       <c r="E78" s="36" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F78" s="22"/>
       <c r="G78" s="22"/>
@@ -4298,13 +4301,13 @@
     <row r="79" spans="1:30" ht="30">
       <c r="A79" s="6"/>
       <c r="B79" s="22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C79" s="22" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
-      <c r="D79" s="21" t="s">
-        <v>42</v>
+      <c r="D79" s="36" t="s">
+        <v>163</v>
       </c>
       <c r="E79" s="21" t="s">
         <v>98</v>
@@ -4341,17 +4344,17 @@
       <c r="C80" s="22"/>
       <c r="D80" s="21"/>
       <c r="E80" s="21" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F80" s="22"/>
       <c r="G80" s="22" t="s">
         <v>34</v>
       </c>
       <c r="H80" s="22" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="I80" s="36" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J80" s="22" t="s">
         <v>21</v>
@@ -4383,7 +4386,7 @@
       <c r="C81" s="26"/>
       <c r="D81" s="21"/>
       <c r="E81" s="21" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F81" s="22"/>
       <c r="G81" s="22"/>

--- a/test_case_katalon.xlsx
+++ b/test_case_katalon.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dangh\Desktop\Amaris_QA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{695B3CC9-7BB7-43E7-9F06-690AA66655FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF980C59-D990-4DB9-9F63-74584647C7F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29760" yWindow="-3795" windowWidth="21600" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="45600" yWindow="-4755" windowWidth="12000" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Katalon Test Case Template" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="174">
   <si>
     <t>TEST CASE TEMPLATE</t>
   </si>
@@ -559,12 +559,36 @@
   <si>
     <t>Checkout_Select payment with out input info</t>
   </si>
+  <si>
+    <t>TC021</t>
+  </si>
+  <si>
+    <t>Checkout_Cash on delivery payment</t>
+  </si>
+  <si>
+    <t>1. go to checkout page</t>
+  </si>
+  <si>
+    <t>2. insert billing details information</t>
+  </si>
+  <si>
+    <t>3.chose the "Cash on delivery" radiobox</t>
+  </si>
+  <si>
+    <t>4. click "continue to payment"</t>
+  </si>
+  <si>
+    <t>return message that confirm order is successful</t>
+  </si>
+  <si>
+    <t>Thank you. Your order has been received.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18">
+  <fonts count="19">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -665,6 +689,13 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF666666"/>
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -831,7 +862,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -940,6 +971,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1201,8 +1235,8 @@
   </sheetPr>
   <dimension ref="A1:AD1007"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
-      <selection activeCell="C80" sqref="C80"/>
+    <sheetView tabSelected="1" topLeftCell="G76" workbookViewId="0">
+      <selection activeCell="I83" sqref="I83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -4072,7 +4106,7 @@
         <v>163</v>
       </c>
       <c r="E73" s="21" t="s">
-        <v>98</v>
+        <v>168</v>
       </c>
       <c r="F73" s="21" t="s">
         <v>72</v>
@@ -4192,7 +4226,7 @@
         <v>163</v>
       </c>
       <c r="E76" s="21" t="s">
-        <v>98</v>
+        <v>168</v>
       </c>
       <c r="F76" s="22" t="s">
         <v>156</v>
@@ -4310,7 +4344,7 @@
         <v>163</v>
       </c>
       <c r="E79" s="21" t="s">
-        <v>98</v>
+        <v>168</v>
       </c>
       <c r="F79" s="22"/>
       <c r="G79" s="22"/>
@@ -4414,17 +4448,33 @@
       <c r="AC81" s="5"/>
       <c r="AD81" s="5"/>
     </row>
-    <row r="82" spans="1:30" ht="17.399999999999999">
+    <row r="82" spans="1:30" ht="52.8">
       <c r="A82" s="6"/>
-      <c r="B82" s="22"/>
-      <c r="C82" s="26"/>
-      <c r="D82" s="21"/>
-      <c r="E82" s="21"/>
+      <c r="B82" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="C82" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="D82" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="E82" s="21" t="s">
+        <v>168</v>
+      </c>
       <c r="F82" s="22"/>
-      <c r="G82" s="22"/>
-      <c r="H82" s="22"/>
-      <c r="I82" s="22"/>
-      <c r="J82" s="22"/>
+      <c r="G82" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="H82" s="38" t="s">
+        <v>173</v>
+      </c>
+      <c r="I82" s="36" t="s">
+        <v>153</v>
+      </c>
+      <c r="J82" s="22" t="s">
+        <v>21</v>
+      </c>
       <c r="K82" s="25"/>
       <c r="L82" s="25"/>
       <c r="M82" s="22"/>
@@ -4446,12 +4496,14 @@
       <c r="AC82" s="5"/>
       <c r="AD82" s="5"/>
     </row>
-    <row r="83" spans="1:30" ht="17.399999999999999">
+    <row r="83" spans="1:30" ht="26.4">
       <c r="A83" s="1"/>
       <c r="B83" s="22"/>
       <c r="C83" s="22"/>
       <c r="D83" s="21"/>
-      <c r="E83" s="21"/>
+      <c r="E83" s="21" t="s">
+        <v>169</v>
+      </c>
       <c r="F83" s="22"/>
       <c r="G83" s="22"/>
       <c r="H83" s="22"/>
@@ -4478,12 +4530,14 @@
       <c r="AC83" s="5"/>
       <c r="AD83" s="5"/>
     </row>
-    <row r="84" spans="1:30" ht="17.399999999999999">
+    <row r="84" spans="1:30" ht="26.4">
       <c r="A84" s="1"/>
       <c r="B84" s="22"/>
       <c r="C84" s="22"/>
       <c r="D84" s="21"/>
-      <c r="E84" s="21"/>
+      <c r="E84" s="21" t="s">
+        <v>170</v>
+      </c>
       <c r="F84" s="22"/>
       <c r="G84" s="22"/>
       <c r="H84" s="22"/>
@@ -4510,12 +4564,14 @@
       <c r="AC84" s="5"/>
       <c r="AD84" s="5"/>
     </row>
-    <row r="85" spans="1:30" ht="17.399999999999999">
+    <row r="85" spans="1:30" ht="26.4">
       <c r="A85" s="1"/>
       <c r="B85" s="22"/>
       <c r="C85" s="22"/>
       <c r="D85" s="21"/>
-      <c r="E85" s="21"/>
+      <c r="E85" s="21" t="s">
+        <v>171</v>
+      </c>
       <c r="F85" s="22"/>
       <c r="G85" s="25"/>
       <c r="H85" s="22"/>
